--- a/reports_pdf/brasil/risk-pt/Cases/29-06-2020_recife_report.xlsx
+++ b/reports_pdf/brasil/risk-pt/Cases/29-06-2020_recife_report.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1127,6 +1127,40 @@
         <v>536.3894775244133</v>
       </c>
     </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>TORITAMA</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>147</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>4</v>
+      </c>
+      <c r="F23" t="n">
+        <v>2.982142857142857</v>
+      </c>
+      <c r="G23" t="n">
+        <v>107</v>
+      </c>
+      <c r="H23" t="n">
+        <v>236.6261969526084</v>
+      </c>
+      <c r="I23" t="n">
+        <v>319.0892857142857</v>
+      </c>
+      <c r="J23" t="n">
+        <v>705.6531230551001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
